--- a/data/pca/factorExposure/factorExposure_2016-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01247983633190817</v>
+        <v>0.01610903226748214</v>
       </c>
       <c r="C2">
-        <v>-0.05420426929739177</v>
+        <v>0.04002343520525448</v>
       </c>
       <c r="D2">
-        <v>-0.03784712959196662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06921049555683667</v>
+      </c>
+      <c r="E2">
+        <v>-0.1050487039448349</v>
+      </c>
+      <c r="F2">
+        <v>-0.07606918105185585</v>
+      </c>
+      <c r="G2">
+        <v>0.02864821525245985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04291705342154833</v>
+        <v>0.02680174439527001</v>
       </c>
       <c r="C3">
-        <v>-0.1221116783129366</v>
+        <v>0.06636916115550213</v>
       </c>
       <c r="D3">
-        <v>-0.08280577715764229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07792012124965614</v>
+      </c>
+      <c r="E3">
+        <v>-0.06480287270034592</v>
+      </c>
+      <c r="F3">
+        <v>0.02911987647718444</v>
+      </c>
+      <c r="G3">
+        <v>0.03741063571888255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06202807000144602</v>
+        <v>0.06073580900412363</v>
       </c>
       <c r="C4">
-        <v>-0.06675282778967034</v>
+        <v>0.0648786414466077</v>
       </c>
       <c r="D4">
-        <v>-0.03391799469493607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0651882143230641</v>
+      </c>
+      <c r="E4">
+        <v>-0.09888808626562441</v>
+      </c>
+      <c r="F4">
+        <v>-0.029377354739994</v>
+      </c>
+      <c r="G4">
+        <v>0.07637970113397606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03927021188140319</v>
+        <v>0.03709025571349694</v>
       </c>
       <c r="C6">
-        <v>-0.03853591877678443</v>
+        <v>0.02812237326469852</v>
       </c>
       <c r="D6">
-        <v>-0.03100220855875346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06844349383752714</v>
+      </c>
+      <c r="E6">
+        <v>-0.09115854294877986</v>
+      </c>
+      <c r="F6">
+        <v>-0.02117163206921017</v>
+      </c>
+      <c r="G6">
+        <v>0.05741203436395146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02664735724207067</v>
+        <v>0.02135285706511383</v>
       </c>
       <c r="C7">
-        <v>-0.04125580644230989</v>
+        <v>0.03673285738308261</v>
       </c>
       <c r="D7">
-        <v>0.002955389653887924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04560430595426764</v>
+      </c>
+      <c r="E7">
+        <v>-0.07772181341049336</v>
+      </c>
+      <c r="F7">
+        <v>-0.05714288421702717</v>
+      </c>
+      <c r="G7">
+        <v>0.1004868045855803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007944976006416573</v>
+        <v>0.007603427222017369</v>
       </c>
       <c r="C8">
-        <v>-0.04019133835691324</v>
+        <v>0.03448192321610014</v>
       </c>
       <c r="D8">
-        <v>-0.02678837713540851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04196315305618273</v>
+      </c>
+      <c r="E8">
+        <v>-0.06152490924710517</v>
+      </c>
+      <c r="F8">
+        <v>-0.01398039715331452</v>
+      </c>
+      <c r="G8">
+        <v>0.03720400254392845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03891777812618587</v>
+        <v>0.04131200711166905</v>
       </c>
       <c r="C9">
-        <v>-0.04759760717113524</v>
+        <v>0.05091813258286047</v>
       </c>
       <c r="D9">
-        <v>-0.0171974260922799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04616948447368222</v>
+      </c>
+      <c r="E9">
+        <v>-0.07620761536645122</v>
+      </c>
+      <c r="F9">
+        <v>-0.04704788021933729</v>
+      </c>
+      <c r="G9">
+        <v>0.07852421044654348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07280268899412355</v>
+        <v>0.1000375845432118</v>
       </c>
       <c r="C10">
-        <v>0.1930554035339091</v>
+        <v>-0.2017112467089299</v>
       </c>
       <c r="D10">
-        <v>0.003288320495138276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009834820709176743</v>
+      </c>
+      <c r="E10">
+        <v>-0.03539243147009018</v>
+      </c>
+      <c r="F10">
+        <v>-0.01773538406449221</v>
+      </c>
+      <c r="G10">
+        <v>0.04173292377241836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04314513850959135</v>
+        <v>0.03773951746941686</v>
       </c>
       <c r="C11">
-        <v>-0.05183289371624635</v>
+        <v>0.04773609367084842</v>
       </c>
       <c r="D11">
-        <v>-0.01575467404317252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03375991381639089</v>
+      </c>
+      <c r="E11">
+        <v>-0.032894633085196</v>
+      </c>
+      <c r="F11">
+        <v>-0.03159658039632779</v>
+      </c>
+      <c r="G11">
+        <v>0.06963236006472349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04619686241509397</v>
+        <v>0.04003651253476943</v>
       </c>
       <c r="C12">
-        <v>-0.04645258068406825</v>
+        <v>0.04581524376242819</v>
       </c>
       <c r="D12">
-        <v>-0.002075796791714613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0289468817518298</v>
+      </c>
+      <c r="E12">
+        <v>-0.04060126395654306</v>
+      </c>
+      <c r="F12">
+        <v>-0.03338021411251734</v>
+      </c>
+      <c r="G12">
+        <v>0.06606158137314626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0161717488254836</v>
+        <v>0.01466640514873119</v>
       </c>
       <c r="C13">
-        <v>-0.05419299901798585</v>
+        <v>0.04227511873558739</v>
       </c>
       <c r="D13">
-        <v>-0.009772524923303803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05565360110450521</v>
+      </c>
+      <c r="E13">
+        <v>-0.1120274445321959</v>
+      </c>
+      <c r="F13">
+        <v>-0.04838437316163736</v>
+      </c>
+      <c r="G13">
+        <v>0.09127796343844731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01028563527833382</v>
+        <v>0.007386144704605447</v>
       </c>
       <c r="C14">
-        <v>-0.03643830064053793</v>
+        <v>0.03046699186029777</v>
       </c>
       <c r="D14">
-        <v>0.0008038086052075891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03093432141730955</v>
+      </c>
+      <c r="E14">
+        <v>-0.06378853987657908</v>
+      </c>
+      <c r="F14">
+        <v>-0.0657690433831372</v>
+      </c>
+      <c r="G14">
+        <v>0.07904066163401587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.000112774964504295</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006294413985551474</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009307900291502793</v>
+      </c>
+      <c r="E15">
+        <v>-0.006647176253432437</v>
+      </c>
+      <c r="F15">
+        <v>-0.005318022778292598</v>
+      </c>
+      <c r="G15">
+        <v>0.007420607837575153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04093859745929455</v>
+        <v>0.03593845637314914</v>
       </c>
       <c r="C16">
-        <v>-0.04857985121286471</v>
+        <v>0.04465813485527678</v>
       </c>
       <c r="D16">
-        <v>-0.004782670059781285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02870033192876478</v>
+      </c>
+      <c r="E16">
+        <v>-0.0477933178332015</v>
+      </c>
+      <c r="F16">
+        <v>-0.04402337540607631</v>
+      </c>
+      <c r="G16">
+        <v>0.05622196776334783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02645670345798163</v>
+        <v>0.01882460319513181</v>
       </c>
       <c r="C19">
-        <v>-0.0609935836624336</v>
+        <v>0.04494286893530518</v>
       </c>
       <c r="D19">
-        <v>-0.08757784318541238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09696142139981841</v>
+      </c>
+      <c r="E19">
+        <v>-0.1119984691137323</v>
+      </c>
+      <c r="F19">
+        <v>-0.05364419601131475</v>
+      </c>
+      <c r="G19">
+        <v>0.03570348609859371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02001148653506078</v>
+        <v>0.0161439262702878</v>
       </c>
       <c r="C20">
-        <v>-0.0497146890279346</v>
+        <v>0.04038468844222113</v>
       </c>
       <c r="D20">
-        <v>-0.009072179353982033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0408089901047522</v>
+      </c>
+      <c r="E20">
+        <v>-0.08622328473788736</v>
+      </c>
+      <c r="F20">
+        <v>-0.04717068149819818</v>
+      </c>
+      <c r="G20">
+        <v>0.06348634604633341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01300895664954204</v>
+        <v>0.01281383670425993</v>
       </c>
       <c r="C21">
-        <v>-0.05702252153457772</v>
+        <v>0.04443325132645461</v>
       </c>
       <c r="D21">
-        <v>-0.03336345674581088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06657228849406405</v>
+      </c>
+      <c r="E21">
+        <v>-0.1348927770975041</v>
+      </c>
+      <c r="F21">
+        <v>-0.07550849966560036</v>
+      </c>
+      <c r="G21">
+        <v>0.09185994407583674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.002653528714803872</v>
+        <v>0.004560413902508484</v>
       </c>
       <c r="C22">
-        <v>-0.001420490538740578</v>
+        <v>0.02932543135971587</v>
       </c>
       <c r="D22">
-        <v>-0.008965243092647983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05783547923351318</v>
+      </c>
+      <c r="E22">
+        <v>-0.06225437190177855</v>
+      </c>
+      <c r="F22">
+        <v>0.02752818758865746</v>
+      </c>
+      <c r="G22">
+        <v>0.05400200704636224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.002642756279571086</v>
+        <v>0.004646483604025626</v>
       </c>
       <c r="C23">
-        <v>-0.001406780384811305</v>
+        <v>0.02934808279351517</v>
       </c>
       <c r="D23">
-        <v>-0.008890002085408216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05704524686188264</v>
+      </c>
+      <c r="E23">
+        <v>-0.06234997367865555</v>
+      </c>
+      <c r="F23">
+        <v>0.02766030859358783</v>
+      </c>
+      <c r="G23">
+        <v>0.05410269622748382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03810287335725587</v>
+        <v>0.03699625414366897</v>
       </c>
       <c r="C24">
-        <v>-0.05055155813675384</v>
+        <v>0.05258030296013563</v>
       </c>
       <c r="D24">
-        <v>-0.009670026975444189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0294948537137214</v>
+      </c>
+      <c r="E24">
+        <v>-0.05116685615980072</v>
+      </c>
+      <c r="F24">
+        <v>-0.04471682344352255</v>
+      </c>
+      <c r="G24">
+        <v>0.06686863520463726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04938358225125202</v>
+        <v>0.04440930160897205</v>
       </c>
       <c r="C25">
-        <v>-0.05966941796875538</v>
+        <v>0.05546382076631312</v>
       </c>
       <c r="D25">
-        <v>0.001180054970614057</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02653130977757575</v>
+      </c>
+      <c r="E25">
+        <v>-0.04160106234216795</v>
+      </c>
+      <c r="F25">
+        <v>-0.03518377574925618</v>
+      </c>
+      <c r="G25">
+        <v>0.0805023871848566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01880411037620898</v>
+        <v>0.01761201215579565</v>
       </c>
       <c r="C26">
-        <v>-0.01772464747332999</v>
+        <v>0.01676958936679475</v>
       </c>
       <c r="D26">
-        <v>-0.007945822608583543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02980146180131082</v>
+      </c>
+      <c r="E26">
+        <v>-0.05808006498275718</v>
+      </c>
+      <c r="F26">
+        <v>-0.0494965725586816</v>
+      </c>
+      <c r="G26">
+        <v>0.04688605962907534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08954824457428874</v>
+        <v>0.1365615705832824</v>
       </c>
       <c r="C28">
-        <v>0.2540074396005643</v>
+        <v>-0.2587473461883169</v>
       </c>
       <c r="D28">
-        <v>0.006469856184470657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0266297263054521</v>
+      </c>
+      <c r="E28">
+        <v>-0.05495962465543226</v>
+      </c>
+      <c r="F28">
+        <v>-0.02841170704042352</v>
+      </c>
+      <c r="G28">
+        <v>0.0559169432267267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008746642191250395</v>
+        <v>0.008007080700789504</v>
       </c>
       <c r="C29">
-        <v>-0.03226636756078019</v>
+        <v>0.02863654934637954</v>
       </c>
       <c r="D29">
-        <v>0.007490041789937924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02327674593602553</v>
+      </c>
+      <c r="E29">
+        <v>-0.06327133574026571</v>
+      </c>
+      <c r="F29">
+        <v>-0.05667486410494359</v>
+      </c>
+      <c r="G29">
+        <v>0.08423050096147087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04648277590017485</v>
+        <v>0.04485128176960497</v>
       </c>
       <c r="C30">
-        <v>-0.04847072648151374</v>
+        <v>0.05639833022478597</v>
       </c>
       <c r="D30">
-        <v>-0.08082659761672144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1091638133758877</v>
+      </c>
+      <c r="E30">
+        <v>-0.08561061601921084</v>
+      </c>
+      <c r="F30">
+        <v>-0.0528943935893741</v>
+      </c>
+      <c r="G30">
+        <v>0.05858979949515743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06167417136201491</v>
+        <v>0.05979425058198665</v>
       </c>
       <c r="C31">
-        <v>-0.04615099460698789</v>
+        <v>0.06124715911329187</v>
       </c>
       <c r="D31">
-        <v>0.04081356368713598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01161284933045003</v>
+      </c>
+      <c r="E31">
+        <v>-0.07641439869674044</v>
+      </c>
+      <c r="F31">
+        <v>-0.01285865393412646</v>
+      </c>
+      <c r="G31">
+        <v>0.07315632291975714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00397396555565183</v>
+        <v>0.009073519637419415</v>
       </c>
       <c r="C32">
-        <v>-0.04026002101110956</v>
+        <v>0.0343205666695287</v>
       </c>
       <c r="D32">
-        <v>-0.05954171221681973</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06055464940370344</v>
+      </c>
+      <c r="E32">
+        <v>-0.06522766771076617</v>
+      </c>
+      <c r="F32">
+        <v>-0.05569850446449266</v>
+      </c>
+      <c r="G32">
+        <v>0.06186849801624695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03477674657663708</v>
+        <v>0.02864720958660401</v>
       </c>
       <c r="C33">
-        <v>-0.05818133599483022</v>
+        <v>0.05233186179740105</v>
       </c>
       <c r="D33">
-        <v>-0.04040813957406911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07611068493510351</v>
+      </c>
+      <c r="E33">
+        <v>-0.0925792535410456</v>
+      </c>
+      <c r="F33">
+        <v>-0.0539194097719299</v>
+      </c>
+      <c r="G33">
+        <v>0.1004660382181335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04578081341314892</v>
+        <v>0.04158143600528113</v>
       </c>
       <c r="C34">
-        <v>-0.06531541321564456</v>
+        <v>0.0629778886926277</v>
       </c>
       <c r="D34">
-        <v>-0.02440930218481775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03976544428917352</v>
+      </c>
+      <c r="E34">
+        <v>-0.02346648182526858</v>
+      </c>
+      <c r="F34">
+        <v>-0.04637442320778151</v>
+      </c>
+      <c r="G34">
+        <v>0.07425136689718689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01807805359144709</v>
+        <v>0.01578047522227798</v>
       </c>
       <c r="C36">
-        <v>-0.01664262043307314</v>
+        <v>0.01372221613450126</v>
       </c>
       <c r="D36">
-        <v>-2.321058452205954e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02900084769436773</v>
+      </c>
+      <c r="E36">
+        <v>-0.06691159965032552</v>
+      </c>
+      <c r="F36">
+        <v>-0.04163456291449773</v>
+      </c>
+      <c r="G36">
+        <v>0.06421570033091709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0301131651904132</v>
+        <v>0.02361904890674129</v>
       </c>
       <c r="C38">
-        <v>-0.0311608322122415</v>
+        <v>0.02431884600690945</v>
       </c>
       <c r="D38">
-        <v>0.01497309049360645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02243314895653682</v>
+      </c>
+      <c r="E38">
+        <v>-0.05524988086430291</v>
+      </c>
+      <c r="F38">
+        <v>-0.03236652500621928</v>
+      </c>
+      <c r="G38">
+        <v>0.04343520653820235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04834956417579103</v>
+        <v>0.04250154837884042</v>
       </c>
       <c r="C39">
-        <v>-0.06084723735406699</v>
+        <v>0.06226705550685653</v>
       </c>
       <c r="D39">
-        <v>-0.02244615987133983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0552089233412798</v>
+      </c>
+      <c r="E39">
+        <v>-0.05717051235804674</v>
+      </c>
+      <c r="F39">
+        <v>-0.06528675568837475</v>
+      </c>
+      <c r="G39">
+        <v>0.06352940527387045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01241521465956591</v>
+        <v>0.01546903928066335</v>
       </c>
       <c r="C40">
-        <v>-0.05537676828300984</v>
+        <v>0.03817821618199258</v>
       </c>
       <c r="D40">
-        <v>-0.01045886008759118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0360437190496271</v>
+      </c>
+      <c r="E40">
+        <v>-0.09887228835050375</v>
+      </c>
+      <c r="F40">
+        <v>-0.02846680243459833</v>
+      </c>
+      <c r="G40">
+        <v>0.09668086378065865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0246994248662633</v>
+        <v>0.02056355933893079</v>
       </c>
       <c r="C41">
-        <v>-0.01256569260691502</v>
+        <v>0.009786917682292074</v>
       </c>
       <c r="D41">
-        <v>-0.0009362398874464026</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02052808845024816</v>
+      </c>
+      <c r="E41">
+        <v>-0.0680731346433345</v>
+      </c>
+      <c r="F41">
+        <v>-0.03558228682649405</v>
+      </c>
+      <c r="G41">
+        <v>0.05017305856256098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04546530627661627</v>
+        <v>0.03239346057241898</v>
       </c>
       <c r="C43">
-        <v>-0.0342693348226362</v>
+        <v>0.02504584754179872</v>
       </c>
       <c r="D43">
-        <v>-0.0222707960328513</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04966291933995493</v>
+      </c>
+      <c r="E43">
+        <v>-0.0838684496977852</v>
+      </c>
+      <c r="F43">
+        <v>-0.02629784832911206</v>
+      </c>
+      <c r="G43">
+        <v>0.07180067383041605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01758783413770774</v>
+        <v>0.0187743432139784</v>
       </c>
       <c r="C44">
-        <v>-0.07115749977910915</v>
+        <v>0.04832018753122494</v>
       </c>
       <c r="D44">
-        <v>-0.002006391298822175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03753774969872524</v>
+      </c>
+      <c r="E44">
+        <v>-0.09247358995023103</v>
+      </c>
+      <c r="F44">
+        <v>-0.05580942872136149</v>
+      </c>
+      <c r="G44">
+        <v>0.05349574323461426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01309615713380961</v>
+        <v>0.01291169080163682</v>
       </c>
       <c r="C46">
-        <v>-0.02627505131687225</v>
+        <v>0.02876723540307891</v>
       </c>
       <c r="D46">
-        <v>0.008562957620392678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02118747513971841</v>
+      </c>
+      <c r="E46">
+        <v>-0.07572320230545872</v>
+      </c>
+      <c r="F46">
+        <v>-0.06375723046217402</v>
+      </c>
+      <c r="G46">
+        <v>0.07721055895198696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09151210995423197</v>
+        <v>0.09354875347195743</v>
       </c>
       <c r="C47">
-        <v>-0.06642876957157039</v>
+        <v>0.07814458923373195</v>
       </c>
       <c r="D47">
-        <v>0.04468847576054041</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0197434838324217</v>
+      </c>
+      <c r="E47">
+        <v>-0.06824485253431353</v>
+      </c>
+      <c r="F47">
+        <v>-0.01592073557944943</v>
+      </c>
+      <c r="G47">
+        <v>0.07485971599090673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02042140794448072</v>
+        <v>0.01892842205755151</v>
       </c>
       <c r="C48">
-        <v>-0.01349291975313981</v>
+        <v>0.01610636867990732</v>
       </c>
       <c r="D48">
-        <v>0.01520726906546896</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01666323654393383</v>
+      </c>
+      <c r="E48">
+        <v>-0.08105908577362723</v>
+      </c>
+      <c r="F48">
+        <v>-0.05574319589581841</v>
+      </c>
+      <c r="G48">
+        <v>0.06973089948958572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08545881488418018</v>
+        <v>0.0727572292461449</v>
       </c>
       <c r="C50">
-        <v>-0.08138278595919288</v>
+        <v>0.07413936554469958</v>
       </c>
       <c r="D50">
-        <v>0.04275201712295979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002356739325005906</v>
+      </c>
+      <c r="E50">
+        <v>-0.08232996701980662</v>
+      </c>
+      <c r="F50">
+        <v>0.01480009371688034</v>
+      </c>
+      <c r="G50">
+        <v>0.08179853504927398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01665616610384061</v>
+        <v>0.01242851868234023</v>
       </c>
       <c r="C51">
-        <v>-0.04678594029030377</v>
+        <v>0.02976696265024586</v>
       </c>
       <c r="D51">
-        <v>-0.04868505736055063</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06348325780036185</v>
+      </c>
+      <c r="E51">
+        <v>-0.06445212389159086</v>
+      </c>
+      <c r="F51">
+        <v>-0.05400698129745173</v>
+      </c>
+      <c r="G51">
+        <v>0.05403335310097161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08440961155543726</v>
+        <v>0.09796460249203184</v>
       </c>
       <c r="C53">
-        <v>-0.07662204941569574</v>
+        <v>0.08450781740449838</v>
       </c>
       <c r="D53">
-        <v>0.06710713680013705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05985232464739519</v>
+      </c>
+      <c r="E53">
+        <v>-0.07124142549620524</v>
+      </c>
+      <c r="F53">
+        <v>-0.02210152090957054</v>
+      </c>
+      <c r="G53">
+        <v>0.07507675217492073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03694180997771144</v>
+        <v>0.03084694243637068</v>
       </c>
       <c r="C54">
-        <v>-0.03363424391717459</v>
+        <v>0.03095258899345306</v>
       </c>
       <c r="D54">
-        <v>-0.002334313647502623</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03111617560942575</v>
+      </c>
+      <c r="E54">
+        <v>-0.06805310294668476</v>
+      </c>
+      <c r="F54">
+        <v>-0.05867132040320792</v>
+      </c>
+      <c r="G54">
+        <v>0.08249004957805908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08052313555136484</v>
+        <v>0.09077782706752593</v>
       </c>
       <c r="C55">
-        <v>-0.05154952014458745</v>
+        <v>0.0659114450787343</v>
       </c>
       <c r="D55">
-        <v>0.07182802867812903</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05967839935269096</v>
+      </c>
+      <c r="E55">
+        <v>-0.04746675004419027</v>
+      </c>
+      <c r="F55">
+        <v>-0.0001987012135753365</v>
+      </c>
+      <c r="G55">
+        <v>0.05507791152696957</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1539449402363353</v>
+        <v>0.1556578967157237</v>
       </c>
       <c r="C56">
-        <v>-0.0799248910183863</v>
+        <v>0.09910716535749992</v>
       </c>
       <c r="D56">
-        <v>0.06219943800621275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05244534274001384</v>
+      </c>
+      <c r="E56">
+        <v>-0.03827988725881079</v>
+      </c>
+      <c r="F56">
+        <v>0.01078762049469919</v>
+      </c>
+      <c r="G56">
+        <v>0.02326575828297572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04823676473808795</v>
+        <v>0.032140534111853</v>
       </c>
       <c r="C58">
-        <v>-0.02113561854832859</v>
+        <v>0.02410338042895728</v>
       </c>
       <c r="D58">
-        <v>-0.4612504410137702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3946627835061101</v>
+      </c>
+      <c r="E58">
+        <v>-0.5425303510537721</v>
+      </c>
+      <c r="F58">
+        <v>0.3936273057437809</v>
+      </c>
+      <c r="G58">
+        <v>-0.5376756000103213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.123115806545225</v>
+        <v>0.139507459122553</v>
       </c>
       <c r="C59">
-        <v>0.2044429125412912</v>
+        <v>-0.1921034272297653</v>
       </c>
       <c r="D59">
-        <v>-0.02600691406564202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03016925569327437</v>
+      </c>
+      <c r="E59">
+        <v>-0.02956704708526702</v>
+      </c>
+      <c r="F59">
+        <v>-0.0323288408767662</v>
+      </c>
+      <c r="G59">
+        <v>-0.005460122358475492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2985442736004192</v>
+        <v>0.2710447656874365</v>
       </c>
       <c r="C60">
-        <v>-0.1110692739302352</v>
+        <v>0.1040179481288221</v>
       </c>
       <c r="D60">
-        <v>-0.2094960687661432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2380023913937339</v>
+      </c>
+      <c r="E60">
+        <v>0.2547200582682106</v>
+      </c>
+      <c r="F60">
+        <v>0.08296707889304847</v>
+      </c>
+      <c r="G60">
+        <v>0.05132369040955281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04663182810209773</v>
+        <v>0.04388164087679604</v>
       </c>
       <c r="C61">
-        <v>-0.0594682618596552</v>
+        <v>0.05758190207383056</v>
       </c>
       <c r="D61">
-        <v>-0.01937868466829665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04632223185191276</v>
+      </c>
+      <c r="E61">
+        <v>-0.0570766682929859</v>
+      </c>
+      <c r="F61">
+        <v>-0.04783644275286975</v>
+      </c>
+      <c r="G61">
+        <v>0.07617752464884325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01782497782175061</v>
+        <v>0.01765646802555099</v>
       </c>
       <c r="C63">
-        <v>-0.03389133933431701</v>
+        <v>0.03106967907874823</v>
       </c>
       <c r="D63">
-        <v>0.01671646345496639</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01988090357206171</v>
+      </c>
+      <c r="E63">
+        <v>-0.06923688913353003</v>
+      </c>
+      <c r="F63">
+        <v>-0.03081139785181259</v>
+      </c>
+      <c r="G63">
+        <v>0.07335010299661066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05344222776534568</v>
+        <v>0.05813032680806494</v>
       </c>
       <c r="C64">
-        <v>-0.04960853393115588</v>
+        <v>0.05850780425529509</v>
       </c>
       <c r="D64">
-        <v>-0.01044379768917934</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0135770943348283</v>
+      </c>
+      <c r="E64">
+        <v>-0.0473378550428646</v>
+      </c>
+      <c r="F64">
+        <v>-0.04643675906971947</v>
+      </c>
+      <c r="G64">
+        <v>0.05506730100046067</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07907824081607953</v>
+        <v>0.06508938508101805</v>
       </c>
       <c r="C65">
-        <v>-0.02504486116179756</v>
+        <v>0.02613701643156853</v>
       </c>
       <c r="D65">
-        <v>-0.0581594698317375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08980066529615116</v>
+      </c>
+      <c r="E65">
+        <v>-0.05072970531348899</v>
+      </c>
+      <c r="F65">
+        <v>0.00148036869576879</v>
+      </c>
+      <c r="G65">
+        <v>0.01820994604695463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0613234340803047</v>
+        <v>0.05393470237172055</v>
       </c>
       <c r="C66">
-        <v>-0.08103160299826336</v>
+        <v>0.07810064276280239</v>
       </c>
       <c r="D66">
-        <v>-0.04185307829256128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07895922588011411</v>
+      </c>
+      <c r="E66">
+        <v>-0.07136436258246215</v>
+      </c>
+      <c r="F66">
+        <v>-0.05388764357125304</v>
+      </c>
+      <c r="G66">
+        <v>0.0737808243597589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05065174765078725</v>
+        <v>0.0439040885015347</v>
       </c>
       <c r="C67">
-        <v>-0.03041213589241589</v>
+        <v>0.0283571044307218</v>
       </c>
       <c r="D67">
-        <v>0.02392613408645918</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004235140606887549</v>
+      </c>
+      <c r="E67">
+        <v>-0.03225770486958104</v>
+      </c>
+      <c r="F67">
+        <v>-0.02094027240877095</v>
+      </c>
+      <c r="G67">
+        <v>0.03516641518347909</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1245666419714636</v>
+        <v>0.1478108823365244</v>
       </c>
       <c r="C68">
-        <v>0.279927976992965</v>
+        <v>-0.2433386812778811</v>
       </c>
       <c r="D68">
-        <v>0.009151352004390484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01239140554788028</v>
+      </c>
+      <c r="E68">
+        <v>-0.04215271039575327</v>
+      </c>
+      <c r="F68">
+        <v>-0.006283794865284185</v>
+      </c>
+      <c r="G68">
+        <v>0.02574954099715861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09350539119738317</v>
+        <v>0.08922723737124466</v>
       </c>
       <c r="C69">
-        <v>-0.07019207307433595</v>
+        <v>0.08947099165648152</v>
       </c>
       <c r="D69">
-        <v>0.04532288743044208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008978809967060035</v>
+      </c>
+      <c r="E69">
+        <v>-0.06180809540353994</v>
+      </c>
+      <c r="F69">
+        <v>-0.04744045163319906</v>
+      </c>
+      <c r="G69">
+        <v>0.07352930879524654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1154379701102296</v>
+        <v>0.1428006261126082</v>
       </c>
       <c r="C71">
-        <v>0.2601916116650961</v>
+        <v>-0.2440484164547533</v>
       </c>
       <c r="D71">
-        <v>-0.01088432173819965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.008140167763595964</v>
+      </c>
+      <c r="E71">
+        <v>-0.06408783435451035</v>
+      </c>
+      <c r="F71">
+        <v>-0.002106464142271254</v>
+      </c>
+      <c r="G71">
+        <v>0.05548731264597873</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09848875018106042</v>
+        <v>0.1049160308926614</v>
       </c>
       <c r="C72">
-        <v>-0.0402885781762413</v>
+        <v>0.04710511695136958</v>
       </c>
       <c r="D72">
-        <v>-0.003944625159297644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03699396242498566</v>
+      </c>
+      <c r="E72">
+        <v>-0.01977834822994094</v>
+      </c>
+      <c r="F72">
+        <v>-0.01987726065317943</v>
+      </c>
+      <c r="G72">
+        <v>0.1010260403793848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3831533611861505</v>
+        <v>0.3266620616423845</v>
       </c>
       <c r="C73">
-        <v>-0.04323902458260383</v>
+        <v>0.06467160756229053</v>
       </c>
       <c r="D73">
-        <v>-0.5111250801068229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4876676268520975</v>
+      </c>
+      <c r="E73">
+        <v>0.4870626794597758</v>
+      </c>
+      <c r="F73">
+        <v>0.2358992557369947</v>
+      </c>
+      <c r="G73">
+        <v>0.01662812300360402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1065427752054192</v>
+        <v>0.111333045870815</v>
       </c>
       <c r="C74">
-        <v>-0.09207517537005358</v>
+        <v>0.09169801143482036</v>
       </c>
       <c r="D74">
-        <v>0.04957070677050343</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04518706800178943</v>
+      </c>
+      <c r="E74">
+        <v>-0.05767705057681669</v>
+      </c>
+      <c r="F74">
+        <v>0.01315626429894668</v>
+      </c>
+      <c r="G74">
+        <v>0.04816575674050809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2566822020770028</v>
+        <v>0.2591110345875207</v>
       </c>
       <c r="C75">
-        <v>-0.08488589352581784</v>
+        <v>0.1201070986449587</v>
       </c>
       <c r="D75">
-        <v>0.150894886100839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1531589765340111</v>
+      </c>
+      <c r="E75">
+        <v>-0.02426091499458901</v>
+      </c>
+      <c r="F75">
+        <v>0.04446332312106953</v>
+      </c>
+      <c r="G75">
+        <v>-0.04428161494278955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1162859891832186</v>
+        <v>0.1295141115336066</v>
       </c>
       <c r="C76">
-        <v>-0.07811798229977475</v>
+        <v>0.08939276778722438</v>
       </c>
       <c r="D76">
-        <v>0.07895188300606752</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07626831306188377</v>
+      </c>
+      <c r="E76">
+        <v>-0.07888557625174331</v>
+      </c>
+      <c r="F76">
+        <v>-0.01347477856756604</v>
+      </c>
+      <c r="G76">
+        <v>0.03521204975654193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08571719389294855</v>
+        <v>0.06934389889713452</v>
       </c>
       <c r="C77">
-        <v>-0.04021950136206314</v>
+        <v>0.05629470210277904</v>
       </c>
       <c r="D77">
-        <v>-0.05918210818185213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0716523965610998</v>
+      </c>
+      <c r="E77">
+        <v>-0.09942718509220265</v>
+      </c>
+      <c r="F77">
+        <v>-0.182777784309128</v>
+      </c>
+      <c r="G77">
+        <v>-0.1193090080407398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04996684738970979</v>
+        <v>0.04900725412145267</v>
       </c>
       <c r="C78">
-        <v>-0.03585181933394978</v>
+        <v>0.05118590039989909</v>
       </c>
       <c r="D78">
-        <v>-0.03642082383973212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07004461896602131</v>
+      </c>
+      <c r="E78">
+        <v>-0.06511581738629815</v>
+      </c>
+      <c r="F78">
+        <v>-0.0499765749947197</v>
+      </c>
+      <c r="G78">
+        <v>0.06545598580959132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0003941540499633477</v>
+        <v>0.03427034594636233</v>
       </c>
       <c r="C79">
-        <v>-0.001070813300583368</v>
+        <v>0.04944362110606753</v>
       </c>
       <c r="D79">
-        <v>-0.00395432878953705</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08278531935870756</v>
+      </c>
+      <c r="E79">
+        <v>-0.07077949705765781</v>
+      </c>
+      <c r="F79">
+        <v>0.0271779754852024</v>
+      </c>
+      <c r="G79">
+        <v>0.03449821094789756</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03996638023500639</v>
+        <v>0.03057145181318072</v>
       </c>
       <c r="C80">
-        <v>-0.05235476450458395</v>
+        <v>0.05175827774600181</v>
       </c>
       <c r="D80">
-        <v>-0.03805162530664679</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04643674862133161</v>
+      </c>
+      <c r="E80">
+        <v>-0.0135358316673285</v>
+      </c>
+      <c r="F80">
+        <v>-0.05237145842780997</v>
+      </c>
+      <c r="G80">
+        <v>-0.002683399049698965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1439609384778754</v>
+        <v>0.1422927251741372</v>
       </c>
       <c r="C81">
-        <v>-0.07189005251719688</v>
+        <v>0.09090913123198041</v>
       </c>
       <c r="D81">
-        <v>0.1177773110429119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1201370020938637</v>
+      </c>
+      <c r="E81">
+        <v>-0.06883087454949384</v>
+      </c>
+      <c r="F81">
+        <v>0.01951149164675676</v>
+      </c>
+      <c r="G81">
+        <v>-0.01484975200553863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2041655250625986</v>
+        <v>0.2325066700983908</v>
       </c>
       <c r="C82">
-        <v>-0.09007540823080845</v>
+        <v>0.1551745885757528</v>
       </c>
       <c r="D82">
-        <v>0.2043480526858465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2490564584075815</v>
+      </c>
+      <c r="E82">
+        <v>0.03593495365979958</v>
+      </c>
+      <c r="F82">
+        <v>-0.0416502427598372</v>
+      </c>
+      <c r="G82">
+        <v>0.08311440633053675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04407313825415083</v>
+        <v>0.03012419123519864</v>
       </c>
       <c r="C83">
-        <v>-0.03175343913488494</v>
+        <v>0.04521861111102082</v>
       </c>
       <c r="D83">
-        <v>-0.04203944779516729</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03390133635995504</v>
+      </c>
+      <c r="E83">
+        <v>-0.02486515484927708</v>
+      </c>
+      <c r="F83">
+        <v>-0.02470424040124653</v>
+      </c>
+      <c r="G83">
+        <v>-0.002754272521204204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-9.803030377573023e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006012384474580561</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0006423039427376093</v>
+      </c>
+      <c r="E84">
+        <v>-0.003366813752510568</v>
+      </c>
+      <c r="F84">
+        <v>0.001638210469504321</v>
+      </c>
+      <c r="G84">
+        <v>2.700863224770298e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2199457451220812</v>
+        <v>0.2031477589431521</v>
       </c>
       <c r="C85">
-        <v>-0.0933824311078766</v>
+        <v>0.1099152867679427</v>
       </c>
       <c r="D85">
-        <v>0.1622617097983535</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1300619742253037</v>
+      </c>
+      <c r="E85">
+        <v>0.008738897020394954</v>
+      </c>
+      <c r="F85">
+        <v>0.1013409879056291</v>
+      </c>
+      <c r="G85">
+        <v>0.007534648423910391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01053139839177391</v>
+        <v>0.01432860567608797</v>
       </c>
       <c r="C86">
-        <v>-0.02812823801896447</v>
+        <v>0.01772702515057475</v>
       </c>
       <c r="D86">
-        <v>-0.0438843164751195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06946098097417804</v>
+      </c>
+      <c r="E86">
+        <v>-0.08248912423124391</v>
+      </c>
+      <c r="F86">
+        <v>-0.07155769687714587</v>
+      </c>
+      <c r="G86">
+        <v>0.07123765225037285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0306875061191873</v>
+        <v>0.0300130651818898</v>
       </c>
       <c r="C87">
-        <v>-0.001940139386420333</v>
+        <v>0.0132969969941135</v>
       </c>
       <c r="D87">
-        <v>-0.07576668245005683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09285147799259742</v>
+      </c>
+      <c r="E87">
+        <v>-0.1279223089181842</v>
+      </c>
+      <c r="F87">
+        <v>-0.07203395110158696</v>
+      </c>
+      <c r="G87">
+        <v>-0.00453490733872013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1103180467406752</v>
+        <v>0.09403686231715649</v>
       </c>
       <c r="C88">
-        <v>-0.08303340832810711</v>
+        <v>0.06683637658280359</v>
       </c>
       <c r="D88">
-        <v>0.01461171620026455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01679273444167235</v>
+      </c>
+      <c r="E88">
+        <v>-0.05459658382326966</v>
+      </c>
+      <c r="F88">
+        <v>-0.03925450535183925</v>
+      </c>
+      <c r="G88">
+        <v>0.02993058126004744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1759686088088993</v>
+        <v>0.2126967317713777</v>
       </c>
       <c r="C89">
-        <v>0.3806910225001401</v>
+        <v>-0.3842769391319987</v>
       </c>
       <c r="D89">
-        <v>0.02857243084702987</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0125009211331333</v>
+      </c>
+      <c r="E89">
+        <v>-0.07837144537229361</v>
+      </c>
+      <c r="F89">
+        <v>-0.08403294758197349</v>
+      </c>
+      <c r="G89">
+        <v>-0.003119682501382939</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1697034339523035</v>
+        <v>0.1940151651040086</v>
       </c>
       <c r="C90">
-        <v>0.3357097878598262</v>
+        <v>-0.3115605938735831</v>
       </c>
       <c r="D90">
-        <v>0.03759751006843344</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01511349567330946</v>
+      </c>
+      <c r="E90">
+        <v>-0.05956862914048362</v>
+      </c>
+      <c r="F90">
+        <v>-0.02355423959837176</v>
+      </c>
+      <c r="G90">
+        <v>0.01420726263362474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1905124468162354</v>
+        <v>0.1874873068730235</v>
       </c>
       <c r="C91">
-        <v>-0.1231879332254162</v>
+        <v>0.1397702123429403</v>
       </c>
       <c r="D91">
-        <v>0.1352897300212064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1261993795792733</v>
+      </c>
+      <c r="E91">
+        <v>-0.0511314629594123</v>
+      </c>
+      <c r="F91">
+        <v>0.009632454180251666</v>
+      </c>
+      <c r="G91">
+        <v>-0.005612988011492616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.160034952286732</v>
+        <v>0.1789521989510373</v>
       </c>
       <c r="C92">
-        <v>0.2959910785360318</v>
+        <v>-0.2992423186560572</v>
       </c>
       <c r="D92">
-        <v>0.01904479884276662</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01059011360674273</v>
+      </c>
+      <c r="E92">
+        <v>-0.06706070229316423</v>
+      </c>
+      <c r="F92">
+        <v>-0.04881027064960795</v>
+      </c>
+      <c r="G92">
+        <v>0.02581142125802295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1885439492419229</v>
+        <v>0.2135434579433844</v>
       </c>
       <c r="C93">
-        <v>0.3371384235795715</v>
+        <v>-0.3207128886197018</v>
       </c>
       <c r="D93">
-        <v>0.04424385991667662</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01801467176930719</v>
+      </c>
+      <c r="E93">
+        <v>-0.0456400025313909</v>
+      </c>
+      <c r="F93">
+        <v>0.003472783181372377</v>
+      </c>
+      <c r="G93">
+        <v>0.0354131543453766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3527957576272648</v>
+        <v>0.3473867076433607</v>
       </c>
       <c r="C94">
-        <v>-0.1316497573479981</v>
+        <v>0.1759889215967864</v>
       </c>
       <c r="D94">
-        <v>0.420555474397021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.407365565214597</v>
+      </c>
+      <c r="E94">
+        <v>0.003194850206036975</v>
+      </c>
+      <c r="F94">
+        <v>0.1014558307103228</v>
+      </c>
+      <c r="G94">
+        <v>-0.4330772805815596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1240617239747498</v>
+        <v>0.09020303630022328</v>
       </c>
       <c r="C95">
-        <v>-0.04733395405072091</v>
+        <v>0.05417544146956532</v>
       </c>
       <c r="D95">
-        <v>-0.2223000999359458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1937394789407763</v>
+      </c>
+      <c r="E95">
+        <v>0.1561562155645477</v>
+      </c>
+      <c r="F95">
+        <v>-0.7649496776419139</v>
+      </c>
+      <c r="G95">
+        <v>-0.4755209223084116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1881254465030794</v>
+        <v>0.1855403381709217</v>
       </c>
       <c r="C98">
-        <v>-0.03088417245641898</v>
+        <v>0.04870829564805722</v>
       </c>
       <c r="D98">
-        <v>-0.1873893921943004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1983987068123709</v>
+      </c>
+      <c r="E98">
+        <v>0.1498772726679916</v>
+      </c>
+      <c r="F98">
+        <v>0.09312503670484899</v>
+      </c>
+      <c r="G98">
+        <v>0.07169317015734956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008524041130733047</v>
+        <v>0.008009480667572469</v>
       </c>
       <c r="C101">
-        <v>-0.03228523929615842</v>
+        <v>0.0281686981703168</v>
       </c>
       <c r="D101">
-        <v>0.007294926229841629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02320180894504847</v>
+      </c>
+      <c r="E101">
+        <v>-0.06395946543268344</v>
+      </c>
+      <c r="F101">
+        <v>-0.05742365332397541</v>
+      </c>
+      <c r="G101">
+        <v>0.08410203460771692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.121760014516033</v>
+        <v>0.1254131889863355</v>
       </c>
       <c r="C102">
-        <v>-0.06358082667831191</v>
+        <v>0.09637168218771774</v>
       </c>
       <c r="D102">
-        <v>0.05093517306268711</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06074325159386492</v>
+      </c>
+      <c r="E102">
+        <v>0.0132795066941546</v>
+      </c>
+      <c r="F102">
+        <v>-0.02445622496043042</v>
+      </c>
+      <c r="G102">
+        <v>0.0009464523619822414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
